--- a/doc/Tech level.xlsx
+++ b/doc/Tech level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6E3306-24D6-41CA-9F25-B145EB570293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AC706-181A-4BFE-BA28-09ABF197AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -774,7 +774,7 @@
     <col min="7" max="7" width="50.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
@@ -825,11 +825,11 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">RAND()*10</f>
-        <v>1.2797161622568698</v>
+        <v>8.1413445901349366</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">I2*($H$1^J2-1)*$H$1^(-SUM($J$2:J2))</f>
-        <v>0.12511667793487574</v>
+        <v>0.74447601639822114</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -856,11 +856,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J26" ca="1" si="1">RAND()*10</f>
-        <v>6.167111679742967</v>
+        <v>9.6783987049559546</v>
       </c>
       <c r="K3" s="1">
         <f ca="1">I3*($H$1^J3-1)*$H$1^(-SUM($J$2:J3))</f>
-        <v>0.54921915026093393</v>
+        <v>0.72736431765883525</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -887,11 +887,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6399114948877278</v>
+        <v>5.8554915251180342</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">I4*($H$1^J4-1)*$H$1^(-SUM($J$2:J4))</f>
-        <v>0.2109633561514079</v>
+        <v>0.3692654820921582</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -918,11 +918,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3710531789574993</v>
+        <v>5.7316422115751609</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">I5*($H$1^J5-1)*$H$1^(-SUM($J$2:J5))</f>
-        <v>0.17654622506580059</v>
+        <v>0.31555509585784036</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -949,11 +949,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.302690891959088</v>
+        <v>0.91856485941427701</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">I6*($H$1^J6-1)*$H$1^(-SUM($J$2:J6))</f>
-        <v>0.60473016518872302</v>
+        <v>4.6317206543944139E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -980,11 +980,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3062811401834917</v>
+        <v>6.063258879861662</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">I7*($H$1^J7-1)*$H$1^(-SUM($J$2:J7))</f>
-        <v>0.4435778134222752</v>
+        <v>0.27927093484001808</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0201252971145669</v>
+        <v>1.5715917856549233</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">I8*($H$1^J8-1)*$H$1^(-SUM($J$2:J8))</f>
-        <v>4.8514373375657331E-2</v>
+        <v>6.5588199713233611E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.157481309473245</v>
+        <v>3.0752708608545043</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">I9*($H$1^J9-1)*$H$1^(-SUM($J$2:J9))</f>
-        <v>0.22557318101580617</v>
+        <v>0.11979888754509506</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1073,11 +1073,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8567712976222737</v>
+        <v>0.83885018915789478</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">I10*($H$1^J10-1)*$H$1^(-SUM($J$2:J10))</f>
-        <v>0.1506639232953545</v>
+        <v>3.070021964225797E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4538155283880223</v>
+        <v>5.0310203416177259</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">I11*($H$1^J11-1)*$H$1^(-SUM($J$2:J11))</f>
-        <v>0.12250731926582407</v>
+        <v>0.1696607451245867</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8827024486641246</v>
+        <v>6.3835320154163044</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">I12*($H$1^J12-1)*$H$1^(-SUM($J$2:J12))</f>
-        <v>0.15560948583176992</v>
+        <v>0.1876240233912749</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1160,11 +1160,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.251456408812829</v>
+        <v>8.0037871315823779</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">I13*($H$1^J13-1)*$H$1^(-SUM($J$2:J13))</f>
-        <v>0.17401709469833679</v>
+        <v>0.19898768628832242</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.314539798334863</v>
+        <v>5.870147419799042</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">I14*($H$1^J14-1)*$H$1^(-SUM($J$2:J14))</f>
-        <v>0.21671759870970467</v>
+        <v>0.12388809351186357</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3171674837434166</v>
+        <v>7.6282852693464518</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">I15*($H$1^J15-1)*$H$1^(-SUM($J$2:J15))</f>
-        <v>2.6820784465432901E-2</v>
+        <v>0.13719855869591707</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44130181065619167</v>
+        <v>1.3775706633874207</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">I16*($H$1^J16-1)*$H$1^(-SUM($J$2:J16))</f>
-        <v>8.5920038516024873E-3</v>
+        <v>2.2029870792783329E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0817734681847311</v>
+        <v>6.9758106293860251</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">I17*($H$1^J17-1)*$H$1^(-SUM($J$2:J17))</f>
-        <v>0.12452911365450332</v>
+        <v>9.9924002499447953E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1300,11 +1300,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5264831770690768</v>
+        <v>9.4660543260481589</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">I18*($H$1^J18-1)*$H$1^(-SUM($J$2:J18))</f>
-        <v>2.3926337946440546E-2</v>
+        <v>0.11200669579292191</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3000450610494563</v>
+        <v>9.4720681489716956</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">I19*($H$1^J19-1)*$H$1^(-SUM($J$2:J19))</f>
-        <v>1.923174902905098E-2</v>
+        <v>9.018204610497374E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1356,11 +1356,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6424552125903631</v>
+        <v>7.9775494587053677</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20*($H$1^J20-1)*$H$1^(-SUM($J$2:J20))</f>
-        <v>7.5600573880906657E-2</v>
+        <v>6.1938544499715774E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2874989258074221</v>
+        <v>6.1018145277680951</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">I21*($H$1^J21-1)*$H$1^(-SUM($J$2:J21))</f>
-        <v>7.252727790028915E-2</v>
+        <v>3.9905466691906533E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4401413192050427</v>
+        <v>5.453565355687223</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">I22*($H$1^J22-1)*$H$1^(-SUM($J$2:J22))</f>
-        <v>1.4883080664274255E-2</v>
+        <v>3.0780183547053606E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3520342760901567</v>
+        <v>5.9576511212799499</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">I23*($H$1^J23-1)*$H$1^(-SUM($J$2:J23))</f>
-        <v>5.001093123305185E-2</v>
+        <v>2.903448268789029E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5271718463899653</v>
+        <v>4.5290168588167887</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">I24*($H$1^J24-1)*$H$1^(-SUM($J$2:J24))</f>
-        <v>6.7102999760008192E-2</v>
+        <v>1.9204505618908244E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5894814739538945</v>
+        <v>5.2246753398517409</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">I25*($H$1^J25-1)*$H$1^(-SUM($J$2:J25))</f>
-        <v>4.082225906928293E-3</v>
+        <v>1.9398612275038814E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1524,11 +1524,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6844763146058286</v>
+        <v>7.9568207825723078</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">I26*($H$1^J26-1)*$H$1^(-SUM($J$2:J26))</f>
-        <v>3.5643075388499132E-2</v>
+        <v>2.4982415654542064E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="J27" s="1">
         <f ca="1">SUM(J2:J26)</f>
-        <v>109.19368700574313</v>
+        <v>145.28378299696402</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">SUM(K2:K26)</f>
-        <v>3.7267065178974574</v>
+        <v>4.0650822934687509</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="K40" s="1">
         <f ca="1">SUM(K2:K39)</f>
-        <v>7.4534130357949149</v>
+        <v>8.1301645869375019</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.4">

--- a/doc/Tech level.xlsx
+++ b/doc/Tech level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AC706-181A-4BFE-BA28-09ABF197AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28434FAF-4175-44CC-A0DA-3F374769601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -470,10 +471,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,7 +761,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -769,7 +770,7 @@
     <col min="2" max="2" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="1"/>
     <col min="4" max="4" width="5.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.46484375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.06640625" style="1"/>
     <col min="7" max="7" width="50.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.06640625" style="1" bestFit="1" customWidth="1"/>
@@ -786,10 +787,10 @@
       <c r="B1" s="2">
         <v>7064</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="4"/>
       <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
@@ -814,7 +815,7 @@
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>0.05</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -825,11 +826,11 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">RAND()*10</f>
-        <v>8.1413445901349366</v>
+        <v>5.5077196943109028</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">I2*($H$1^J2-1)*$H$1^(-SUM($J$2:J2))</f>
-        <v>0.74447601639822114</v>
+        <v>0.51664974341390413</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -843,7 +844,7 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>E2*0.95</f>
         <v>4.7500000000000001E-2</v>
       </c>
@@ -856,11 +857,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J26" ca="1" si="1">RAND()*10</f>
-        <v>9.6783987049559546</v>
+        <v>7.5131114787449498</v>
       </c>
       <c r="K3" s="1">
         <f ca="1">I3*($H$1^J3-1)*$H$1^(-SUM($J$2:J3))</f>
-        <v>0.72736431765883525</v>
+        <v>0.60738609360335816</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,7 +875,7 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E32" si="2">E3*0.95</f>
         <v>4.5124999999999998E-2</v>
       </c>
@@ -887,11 +888,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8554915251180342</v>
+        <v>5.1760333967601628</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">I4*($H$1^J4-1)*$H$1^(-SUM($J$2:J4))</f>
-        <v>0.3692654820921582</v>
+        <v>0.36133700875056318</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -905,7 +906,7 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="2"/>
         <v>4.2868749999999997E-2</v>
       </c>
@@ -918,11 +919,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7316422115751609</v>
+        <v>6.2990397681700969</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">I5*($H$1^J5-1)*$H$1^(-SUM($J$2:J5))</f>
-        <v>0.31555509585784036</v>
+        <v>0.38440937459915753</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -936,7 +937,7 @@
       <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="2"/>
         <v>4.0725312499999992E-2</v>
       </c>
@@ -949,11 +950,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91856485941427701</v>
+        <v>4.6672206115138382</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">I6*($H$1^J6-1)*$H$1^(-SUM($J$2:J6))</f>
-        <v>4.6317206543944139E-2</v>
+        <v>0.25000868944165161</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -967,7 +968,7 @@
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="2"/>
         <v>3.8689046874999994E-2</v>
       </c>
@@ -980,11 +981,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.063258879861662</v>
+        <v>5.3499054860020898</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">I7*($H$1^J7-1)*$H$1^(-SUM($J$2:J7))</f>
-        <v>0.27927093484001808</v>
+        <v>0.2539051921230287</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -998,7 +999,7 @@
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="2"/>
         <v>3.675459453124999E-2</v>
       </c>
@@ -1011,11 +1012,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5715917856549233</v>
+        <v>2.7799106284259967</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">I8*($H$1^J8-1)*$H$1^(-SUM($J$2:J8))</f>
-        <v>6.5588199713233611E-2</v>
+        <v>0.11898420588834979</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1029,7 +1030,7 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>3.4916864804687489E-2</v>
       </c>
@@ -1042,11 +1043,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0752708608545043</v>
+        <v>8.3185969999911116</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">I9*($H$1^J9-1)*$H$1^(-SUM($J$2:J9))</f>
-        <v>0.11979888754509506</v>
+        <v>0.31205842018420743</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1060,7 +1061,7 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>3.3171021564453111E-2</v>
       </c>
@@ -1073,11 +1074,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83885018915789478</v>
+        <v>0.35347914128540769</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">I10*($H$1^J10-1)*$H$1^(-SUM($J$2:J10))</f>
-        <v>3.070021964225797E-2</v>
+        <v>1.1872706439020499E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1091,7 +1092,7 @@
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="2"/>
         <v>3.1512470486230452E-2</v>
       </c>
@@ -1101,11 +1102,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0310203416177259</v>
+        <v>3.0205397610239948</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">I11*($H$1^J11-1)*$H$1^(-SUM($J$2:J11))</f>
-        <v>0.1696607451245867</v>
+        <v>9.5798860729749954E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1119,7 +1120,7 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="2"/>
         <v>2.993684696191893E-2</v>
       </c>
@@ -1132,11 +1133,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3835320154163044</v>
+        <v>1.0555938219642147</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">I12*($H$1^J12-1)*$H$1^(-SUM($J$2:J12))</f>
-        <v>0.1876240233912749</v>
+        <v>3.1366365871419985E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1150,7 +1151,7 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="2"/>
         <v>2.8440004613822983E-2</v>
       </c>
@@ -1160,11 +1161,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0037871315823779</v>
+        <v>9.4980569314327887</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">I13*($H$1^J13-1)*$H$1^(-SUM($J$2:J13))</f>
-        <v>0.19898768628832242</v>
+        <v>0.24823168064063023</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1178,7 +1179,7 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="2"/>
         <v>2.7018004383131834E-2</v>
       </c>
@@ -1188,11 +1189,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.870147419799042</v>
+        <v>0.65338686257762846</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">I14*($H$1^J14-1)*$H$1^(-SUM($J$2:J14))</f>
-        <v>0.12388809351186357</v>
+        <v>1.5025288000698449E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1206,7 +1207,7 @@
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="2"/>
         <v>2.5667104163975239E-2</v>
       </c>
@@ -1216,11 +1217,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6282852693464518</v>
+        <v>0.59391431170679909</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">I15*($H$1^J15-1)*$H$1^(-SUM($J$2:J15))</f>
-        <v>0.13719855869591707</v>
+        <v>1.3135006643415719E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1234,7 +1235,7 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>2.4383748955776476E-2</v>
       </c>
@@ -1244,11 +1245,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3775706633874207</v>
+        <v>0.83068015714958032</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">I16*($H$1^J16-1)*$H$1^(-SUM($J$2:J16))</f>
-        <v>2.2029870792783329E-2</v>
+        <v>1.7624533641995978E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1262,7 +1263,7 @@
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="2"/>
         <v>2.3164561507987652E-2</v>
       </c>
@@ -1272,11 +1273,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9758106293860251</v>
+        <v>3.6525569895384411</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">I17*($H$1^J17-1)*$H$1^(-SUM($J$2:J17))</f>
-        <v>9.9924002499447953E-2</v>
+        <v>7.208714185477029E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1290,7 +1291,7 @@
       <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="2"/>
         <v>2.200633343258827E-2</v>
       </c>
@@ -1300,11 +1301,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4660543260481589</v>
+        <v>2.7247052701077399</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">I18*($H$1^J18-1)*$H$1^(-SUM($J$2:J18))</f>
-        <v>0.11200669579292191</v>
+        <v>4.9037288637617221E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1318,7 +1319,7 @@
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <f t="shared" si="2"/>
         <v>2.0906016760958854E-2</v>
       </c>
@@ -1328,11 +1329,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4720681489716956</v>
+        <v>3.5659700494069559</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">I19*($H$1^J19-1)*$H$1^(-SUM($J$2:J19))</f>
-        <v>9.018204610497374E-2</v>
+        <v>5.8533802555100899E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1346,7 +1347,7 @@
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="2"/>
         <v>1.9860715922910912E-2</v>
       </c>
@@ -1356,11 +1357,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9775494587053677</v>
+        <v>3.266676011593288</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20*($H$1^J20-1)*$H$1^(-SUM($J$2:J20))</f>
-        <v>6.1938544499715774E-2</v>
+        <v>4.8593219503142604E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1374,7 +1375,7 @@
       <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="2"/>
         <v>1.8867680126765367E-2</v>
       </c>
@@ -1384,11 +1385,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1018145277680951</v>
+        <v>2.6467330702151171</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">I21*($H$1^J21-1)*$H$1^(-SUM($J$2:J21))</f>
-        <v>3.9905466691906533E-2</v>
+        <v>3.5969739313164911E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1402,7 +1403,7 @@
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="2"/>
         <v>1.7924296120427098E-2</v>
       </c>
@@ -1412,11 +1413,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.453565355687223</v>
+        <v>5.3570092893212271</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">I22*($H$1^J22-1)*$H$1^(-SUM($J$2:J22))</f>
-        <v>3.0780183547053606E-2</v>
+        <v>6.5109781833582792E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1430,7 +1431,7 @@
       <c r="D23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>1.7028081314405741E-2</v>
       </c>
@@ -1440,11 +1441,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9576511212799499</v>
+        <v>0.55134773371599999</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">I23*($H$1^J23-1)*$H$1^(-SUM($J$2:J23))</f>
-        <v>2.903448268789029E-2</v>
+        <v>6.106864318570022E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1458,7 +1459,7 @@
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>1.6176677248685455E-2</v>
       </c>
@@ -1468,11 +1469,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5290168588167887</v>
+        <v>2.4401667851922682</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">I24*($H$1^J24-1)*$H$1^(-SUM($J$2:J24))</f>
-        <v>1.9204505618908244E-2</v>
+        <v>2.533661240880327E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1486,7 +1487,7 @@
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>1.5367843386251181E-2</v>
       </c>
@@ -1496,11 +1497,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2246753398517409</v>
+        <v>4.5849954540415556</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">I25*($H$1^J25-1)*$H$1^(-SUM($J$2:J25))</f>
-        <v>1.9398612275038814E-2</v>
+        <v>4.2832338932068621E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1514,7 +1515,7 @@
       <c r="D26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>1.4599451216938621E-2</v>
       </c>
@@ -1524,11 +1525,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9568207825723078</v>
+        <v>2.4578779271469422</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">I26*($H$1^J26-1)*$H$1^(-SUM($J$2:J26))</f>
-        <v>2.4982415654542064E-2</v>
+        <v>2.0616337570908125E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1542,17 +1543,17 @@
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>1.3869478656091689E-2</v>
       </c>
       <c r="J27" s="1">
         <f ca="1">SUM(J2:J26)</f>
-        <v>145.28378299696402</v>
+        <v>92.865227631339096</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">SUM(K2:K26)</f>
-        <v>4.0650822934687509</v>
+        <v>3.6620162968988805</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1566,7 +1567,7 @@
       <c r="D28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>1.3176004723287104E-2</v>
       </c>
@@ -1585,7 +1586,7 @@
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>1.2517204487122747E-2</v>
       </c>
@@ -1604,7 +1605,7 @@
       <c r="D30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>1.1891344262766609E-2</v>
       </c>
@@ -1623,7 +1624,7 @@
       <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>1.1296777049628278E-2</v>
       </c>
@@ -1635,7 +1636,7 @@
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>1.0731938197146863E-2</v>
       </c>
@@ -1644,7 +1645,7 @@
       <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <f t="shared" ref="E33:E58" si="6">E32*0.95</f>
         <v>1.0195341287289519E-2</v>
       </c>
@@ -1653,7 +1654,7 @@
       <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="6"/>
         <v>9.6855742229250419E-3</v>
       </c>
@@ -1662,7 +1663,7 @@
       <c r="D35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <f t="shared" si="6"/>
         <v>9.2012955117787894E-3</v>
       </c>
@@ -1671,7 +1672,7 @@
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <f t="shared" si="6"/>
         <v>8.7412307361898495E-3</v>
       </c>
@@ -1680,7 +1681,7 @@
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <f t="shared" si="6"/>
         <v>8.3041691993803561E-3</v>
       </c>
@@ -1689,7 +1690,7 @@
       <c r="D38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <f t="shared" si="6"/>
         <v>7.8889607394113381E-3</v>
       </c>
@@ -1698,7 +1699,7 @@
       <c r="D39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <f t="shared" si="6"/>
         <v>7.4945127024407705E-3</v>
       </c>
@@ -1707,20 +1708,20 @@
       <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <f t="shared" si="6"/>
         <v>7.119787067318732E-3</v>
       </c>
       <c r="K40" s="1">
         <f ca="1">SUM(K2:K39)</f>
-        <v>8.1301645869375019</v>
+        <v>7.3240325937977611</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.4">
       <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <f t="shared" si="6"/>
         <v>6.7637977139527947E-3</v>
       </c>
@@ -1729,7 +1730,7 @@
       <c r="D42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <f t="shared" si="6"/>
         <v>6.4256078282551544E-3</v>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="D43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <f t="shared" si="6"/>
         <v>6.1043274368423961E-3</v>
       </c>
@@ -1747,7 +1748,7 @@
       <c r="D44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <f t="shared" si="6"/>
         <v>5.799111065000276E-3</v>
       </c>
@@ -1756,7 +1757,7 @@
       <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <f t="shared" si="6"/>
         <v>5.5091555117502619E-3</v>
       </c>
@@ -1765,7 +1766,7 @@
       <c r="D46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <f t="shared" si="6"/>
         <v>5.2336977361627486E-3</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="D47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <f t="shared" si="6"/>
         <v>4.9720128493546106E-3</v>
       </c>
@@ -1783,7 +1784,7 @@
       <c r="D48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <f t="shared" si="6"/>
         <v>4.7234122068868798E-3</v>
       </c>
@@ -1792,7 +1793,7 @@
       <c r="D49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <f t="shared" si="6"/>
         <v>4.4872415965425353E-3</v>
       </c>
@@ -1801,7 +1802,7 @@
       <c r="D50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <f t="shared" si="6"/>
         <v>4.2628795167154081E-3</v>
       </c>
@@ -1810,7 +1811,7 @@
       <c r="D51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <f t="shared" si="6"/>
         <v>4.0497355408796376E-3</v>
       </c>
@@ -1819,7 +1820,7 @@
       <c r="D52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <f t="shared" si="6"/>
         <v>3.8472487638356555E-3</v>
       </c>
@@ -1828,7 +1829,7 @@
       <c r="D53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <f t="shared" si="6"/>
         <v>3.6548863256438725E-3</v>
       </c>
@@ -1837,7 +1838,7 @@
       <c r="D54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <f t="shared" si="6"/>
         <v>3.4721420093616786E-3</v>
       </c>
@@ -1846,7 +1847,7 @@
       <c r="D55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <f t="shared" si="6"/>
         <v>3.2985349088935946E-3</v>
       </c>
@@ -1855,7 +1856,7 @@
       <c r="D56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <f t="shared" si="6"/>
         <v>3.1336081634489145E-3</v>
       </c>
@@ -1864,7 +1865,7 @@
       <c r="D57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <f t="shared" si="6"/>
         <v>2.9769277552764688E-3</v>
       </c>
@@ -1873,7 +1874,7 @@
       <c r="D58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <f t="shared" si="6"/>
         <v>2.8280813675126454E-3</v>
       </c>
@@ -1882,7 +1883,7 @@
       <c r="D59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <f t="shared" ref="E59:E101" si="7">E58*0.95</f>
         <v>2.6866772991370131E-3</v>
       </c>
@@ -1891,7 +1892,7 @@
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <f t="shared" si="7"/>
         <v>2.5523434341801622E-3</v>
       </c>
@@ -1900,7 +1901,7 @@
       <c r="D61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <f t="shared" si="7"/>
         <v>2.4247262624711541E-3</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="D62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <f t="shared" si="7"/>
         <v>2.3034899493475963E-3</v>
       </c>
@@ -1918,7 +1919,7 @@
       <c r="D63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <f t="shared" si="7"/>
         <v>2.1883154518802165E-3</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="D64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <f t="shared" si="7"/>
         <v>2.0788996792862058E-3</v>
       </c>
@@ -1936,7 +1937,7 @@
       <c r="D65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <f t="shared" si="7"/>
         <v>1.9749546953218952E-3</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <f t="shared" si="7"/>
         <v>1.8762069605558003E-3</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="D67" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <f t="shared" si="7"/>
         <v>1.7823966125280102E-3</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="D68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <f t="shared" si="7"/>
         <v>1.6932767819016095E-3</v>
       </c>
@@ -1972,7 +1973,7 @@
       <c r="D69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <f t="shared" si="7"/>
         <v>1.608612942806529E-3</v>
       </c>
@@ -1981,7 +1982,7 @@
       <c r="D70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <f t="shared" si="7"/>
         <v>1.5281822956662023E-3</v>
       </c>
@@ -1990,7 +1991,7 @@
       <c r="D71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <f t="shared" si="7"/>
         <v>1.4517731808828922E-3</v>
       </c>
@@ -1999,7 +2000,7 @@
       <c r="D72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <f t="shared" si="7"/>
         <v>1.3791845218387474E-3</v>
       </c>
@@ -2008,7 +2009,7 @@
       <c r="D73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <f t="shared" si="7"/>
         <v>1.31022529574681E-3</v>
       </c>
@@ -2017,7 +2018,7 @@
       <c r="D74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <f t="shared" si="7"/>
         <v>1.2447140309594694E-3</v>
       </c>
@@ -2026,7 +2027,7 @@
       <c r="D75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <f t="shared" si="7"/>
         <v>1.182478329411496E-3</v>
       </c>
@@ -2035,7 +2036,7 @@
       <c r="D76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <f t="shared" si="7"/>
         <v>1.1233544129409211E-3</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="D77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <f t="shared" si="7"/>
         <v>1.0671866922938749E-3</v>
       </c>
@@ -2053,7 +2054,7 @@
       <c r="D78" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <f t="shared" si="7"/>
         <v>1.0138273576791811E-3</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="D79" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <f t="shared" si="7"/>
         <v>9.6313598979522197E-4</v>
       </c>
@@ -2071,7 +2072,7 @@
       <c r="D80" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <f t="shared" si="7"/>
         <v>9.1497919030546085E-4</v>
       </c>
@@ -2080,7 +2081,7 @@
       <c r="D81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <f t="shared" si="7"/>
         <v>8.6923023079018777E-4</v>
       </c>
@@ -2089,7 +2090,7 @@
       <c r="D82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <f t="shared" si="7"/>
         <v>8.2576871925067838E-4</v>
       </c>
@@ -2098,7 +2099,7 @@
       <c r="D83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <f t="shared" si="7"/>
         <v>7.844802832881444E-4</v>
       </c>
@@ -2107,7 +2108,7 @@
       <c r="D84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <f t="shared" si="7"/>
         <v>7.452562691237371E-4</v>
       </c>
@@ -2116,7 +2117,7 @@
       <c r="D85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <f t="shared" si="7"/>
         <v>7.0799345566755021E-4</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="D86" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <f t="shared" si="7"/>
         <v>6.7259378288417272E-4</v>
       </c>
@@ -2134,7 +2135,7 @@
       <c r="D87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <f t="shared" si="7"/>
         <v>6.3896409373996404E-4</v>
       </c>
@@ -2143,7 +2144,7 @@
       <c r="D88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <f t="shared" si="7"/>
         <v>6.0701588905296582E-4</v>
       </c>
@@ -2152,7 +2153,7 @@
       <c r="D89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <f t="shared" si="7"/>
         <v>5.7666509460031746E-4</v>
       </c>
@@ -2161,7 +2162,7 @@
       <c r="D90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <f t="shared" si="7"/>
         <v>5.4783183987030159E-4</v>
       </c>
@@ -2170,7 +2171,7 @@
       <c r="D91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <f t="shared" si="7"/>
         <v>5.2044024787678653E-4</v>
       </c>
@@ -2179,7 +2180,7 @@
       <c r="D92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <f t="shared" si="7"/>
         <v>4.9441823548294721E-4</v>
       </c>
@@ -2188,7 +2189,7 @@
       <c r="D93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <f t="shared" si="7"/>
         <v>4.6969732370879982E-4</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="D94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <f t="shared" si="7"/>
         <v>4.4621245752335983E-4</v>
       </c>
@@ -2206,7 +2207,7 @@
       <c r="D95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <f t="shared" si="7"/>
         <v>4.2390183464719182E-4</v>
       </c>
@@ -2215,7 +2216,7 @@
       <c r="D96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <f t="shared" si="7"/>
         <v>4.0270674291483221E-4</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="D97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <f t="shared" si="7"/>
         <v>3.8257140576909059E-4</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="D98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <f t="shared" si="7"/>
         <v>3.6344283548063602E-4</v>
       </c>
@@ -2242,7 +2243,7 @@
       <c r="D99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <f t="shared" si="7"/>
         <v>3.4527069370660421E-4</v>
       </c>
@@ -2251,7 +2252,7 @@
       <c r="D100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <f t="shared" si="7"/>
         <v>3.2800715902127396E-4</v>
       </c>
@@ -2260,7 +2261,7 @@
       <c r="D101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <f t="shared" si="7"/>
         <v>3.1160680107021024E-4</v>
       </c>

--- a/doc/Tech level.xlsx
+++ b/doc/Tech level.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28434FAF-4175-44CC-A0DA-3F374769601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C271BB3-5838-4B9E-9E55-F3F85A210C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11993" yWindow="0" windowWidth="7499" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t>1st</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -826,11 +826,11 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">RAND()*10</f>
-        <v>5.5077196943109028</v>
+        <v>8.3520069650172033</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">I2*($H$1^J2-1)*$H$1^(-SUM($J$2:J2))</f>
-        <v>0.51664974341390413</v>
+        <v>0.76219167411340982</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -857,11 +857,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J26" ca="1" si="1">RAND()*10</f>
-        <v>7.5131114787449498</v>
+        <v>6.8906818317937262</v>
       </c>
       <c r="K3" s="1">
         <f ca="1">I3*($H$1^J3-1)*$H$1^(-SUM($J$2:J3))</f>
-        <v>0.60738609360335816</v>
+        <v>0.52973510412588709</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -888,11 +888,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1760333967601628</v>
+        <v>6.6148673132520592</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">I4*($H$1^J4-1)*$H$1^(-SUM($J$2:J4))</f>
-        <v>0.36133700875056318</v>
+        <v>0.4357740894574238</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -919,11 +919,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2990397681700969</v>
+        <v>4.5409692650128273</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">I5*($H$1^J5-1)*$H$1^(-SUM($J$2:J5))</f>
-        <v>0.38440937459915753</v>
+        <v>0.26218645628322873</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -950,11 +950,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6672206115138382</v>
+        <v>3.7696579594463628</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">I6*($H$1^J6-1)*$H$1^(-SUM($J$2:J6))</f>
-        <v>0.25000868944165161</v>
+        <v>0.19617412269934326</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -981,11 +981,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3499054860020898</v>
+        <v>7.7572592718847053</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">I7*($H$1^J7-1)*$H$1^(-SUM($J$2:J7))</f>
-        <v>0.2539051921230287</v>
+        <v>0.35258360876676836</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7799106284259967</v>
+        <v>3.9728173365282671</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">I8*($H$1^J8-1)*$H$1^(-SUM($J$2:J8))</f>
-        <v>0.11898420588834979</v>
+        <v>0.15708593630341339</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3185969999911116</v>
+        <v>9.9365487463797368</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">I9*($H$1^J9-1)*$H$1^(-SUM($J$2:J9))</f>
-        <v>0.31205842018420743</v>
+        <v>0.33501711747048912</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35347914128540769</v>
+        <v>4.8668134207962357</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">I10*($H$1^J10-1)*$H$1^(-SUM($J$2:J10))</f>
-        <v>1.1872706439020499E-2</v>
+        <v>0.13825119420028048</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0205397610239948</v>
+        <v>8.4051560009835455</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">I11*($H$1^J11-1)*$H$1^(-SUM($J$2:J11))</f>
-        <v>9.5798860729749954E-2</v>
+        <v>0.20453473182685664</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0555938219642147</v>
+        <v>6.938308459330278</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">I12*($H$1^J12-1)*$H$1^(-SUM($J$2:J12))</f>
-        <v>3.1366365871419985E-2</v>
+        <v>0.14145332627189111</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4980569314327887</v>
+        <v>6.5269519205159954</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">I13*($H$1^J13-1)*$H$1^(-SUM($J$2:J13))</f>
-        <v>0.24823168064063023</v>
+        <v>0.11353598191251682</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65338686257762846</v>
+        <v>2.8496333467639778</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">I14*($H$1^J14-1)*$H$1^(-SUM($J$2:J14))</f>
-        <v>1.5025288000698449E-2</v>
+        <v>4.3991251913430091E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59391431170679909</v>
+        <v>4.1615986238746991</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">I15*($H$1^J15-1)*$H$1^(-SUM($J$2:J15))</f>
-        <v>1.3135006643415719E-2</v>
+        <v>5.8367625262740176E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83068015714958032</v>
+        <v>7.0508843681969156</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">I16*($H$1^J16-1)*$H$1^(-SUM($J$2:J16))</f>
-        <v>1.7624533641995978E-2</v>
+        <v>8.6153196796766404E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6525569895384411</v>
+        <v>3.874688385068159</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">I17*($H$1^J17-1)*$H$1^(-SUM($J$2:J17))</f>
-        <v>7.208714185477029E-2</v>
+        <v>4.1286021400445863E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7247052701077399</v>
+        <v>3.4220660814564141</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">I18*($H$1^J18-1)*$H$1^(-SUM($J$2:J18))</f>
-        <v>4.9037288637617221E-2</v>
+        <v>3.295075818303652E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5659700494069559</v>
+        <v>2.8738979263327327</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">I19*($H$1^J19-1)*$H$1^(-SUM($J$2:J19))</f>
-        <v>5.8533802555100899E-2</v>
+        <v>2.5233977266955112E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1357,11 +1357,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.266676011593288</v>
+        <v>6.2013558655370264</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20*($H$1^J20-1)*$H$1^(-SUM($J$2:J20))</f>
-        <v>4.8593219503142604E-2</v>
+        <v>4.8286635046153936E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6467330702151171</v>
+        <v>6.6108491901289925</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">I21*($H$1^J21-1)*$H$1^(-SUM($J$2:J21))</f>
-        <v>3.5969739313164911E-2</v>
+        <v>4.3929159173986626E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3570092893212271</v>
+        <v>0.2223746912855451</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">I22*($H$1^J22-1)*$H$1^(-SUM($J$2:J22))</f>
-        <v>6.5109781833582792E-2</v>
+        <v>1.3355107343165399E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1441,11 +1441,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55134773371599999</v>
+        <v>4.1708355445113989</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">I23*($H$1^J23-1)*$H$1^(-SUM($J$2:J23))</f>
-        <v>6.106864318570022E-3</v>
+        <v>2.3189625623197388E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4401667851922682</v>
+        <v>0.63693946083075992</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">I24*($H$1^J24-1)*$H$1^(-SUM($J$2:J24))</f>
-        <v>2.533661240880327E-2</v>
+        <v>3.2593759644541222E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5849954540415556</v>
+        <v>7.5166141297337177</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">I25*($H$1^J25-1)*$H$1^(-SUM($J$2:J25))</f>
-        <v>4.2832338932068621E-2</v>
+        <v>3.4245324285932056E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4578779271469422</v>
+        <v>2.3577950474961904</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">I26*($H$1^J26-1)*$H$1^(-SUM($J$2:J26))</f>
-        <v>2.0616337570908125E-2</v>
+        <v>9.3728669312552366E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1549,11 +1549,11 @@
       </c>
       <c r="J27" s="1">
         <f ca="1">SUM(J2:J26)</f>
-        <v>92.865227631339096</v>
+        <v>130.52157115215743</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">SUM(K2:K26)</f>
-        <v>3.6620162968988805</v>
+        <v>4.0801246720141782</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K40" s="1">
         <f ca="1">SUM(K2:K39)</f>
-        <v>7.3240325937977611</v>
+        <v>8.1602493440283563</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.4">
@@ -2273,4 +2273,281 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F99C48-C805-4C9F-AD1F-EA5EFE25C650}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*($A$1^C2-1)*$A$1^(-SUM(C$2:$C2))</f>
+        <v>0.17303299635886632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*($A$1^C3-1)*$A$1^(-SUM(C$2:$C3))</f>
+        <v>7.3183049434257186E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <f>B4*($A$1^C4-1)*$A$1^(-SUM(C$2:$C4))</f>
+        <v>1.7759427643723857E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <f>B5*($A$1^C5-1)*$A$1^(-SUM(C$2:$C5))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <f>B6*($A$1^C6-1)*$A$1^(-SUM(C$2:$C6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <f>B7*($A$1^C7-1)*$A$1^(-SUM(C$2:$C7))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <f>B8*($A$1^C8-1)*$A$1^(-SUM(C$2:$C8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <f>B9*($A$1^C9-1)*$A$1^(-SUM(C$2:$C9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <f>B10*($A$1^C10-1)*$A$1^(-SUM(C$2:$C10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <f>B11*($A$1^C11-1)*$A$1^(-SUM(C$2:$C11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <f>B12*($A$1^C12-1)*$A$1^(-SUM(C$2:$C12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <f>B13*($A$1^C13-1)*$A$1^(-SUM(C$2:$C13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <f>B14*($A$1^C14-1)*$A$1^(-SUM(C$2:$C14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>B15*($A$1^C15-1)*$A$1^(-SUM(C$2:$C15))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <f>B16*($A$1^C16-1)*$A$1^(-SUM(C$2:$C16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>B17*($A$1^C17-1)*$A$1^(-SUM(C$2:$C17))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <f>B18*($A$1^C18-1)*$A$1^(-SUM(C$2:$C18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>B19*($A$1^C19-1)*$A$1^(-SUM(C$2:$C19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <f>B20*($A$1^C20-1)*$A$1^(-SUM(C$2:$C20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <f>B21*($A$1^C21-1)*$A$1^(-SUM(C$2:$C21))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>B22*($A$1^C22-1)*$A$1^(-SUM(C$2:$C22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <f>B23*($A$1^C23-1)*$A$1^(-SUM(C$2:$C23))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <f>B24*($A$1^C24-1)*$A$1^(-SUM(C$2:$C24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <f>B25*($A$1^C25-1)*$A$1^(-SUM(C$2:$C25))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <f>B26*($A$1^C26-1)*$A$1^(-SUM(C$2:$C26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <f>SUM(C2:C26)</f>
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <f>SUM(D2:D26)</f>
+        <v>0.26397547343684735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Tech level.xlsx
+++ b/doc/Tech level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GuoMuoRuoProject\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C271BB3-5838-4B9E-9E55-F3F85A210C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E16E4C-0197-4693-9A9A-55C78886079F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11993" yWindow="0" windowWidth="7499" windowHeight="6000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,11 +826,11 @@
       </c>
       <c r="J2" s="1">
         <f ca="1">RAND()*10</f>
-        <v>8.3520069650172033</v>
+        <v>8.1300191277999261</v>
       </c>
       <c r="K2" s="1">
         <f ca="1">I2*($H$1^J2-1)*$H$1^(-SUM($J$2:J2))</f>
-        <v>0.76219167411340982</v>
+        <v>0.74352150636527137</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -857,11 +857,11 @@
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J26" ca="1" si="1">RAND()*10</f>
-        <v>6.8906818317937262</v>
+        <v>6.4191449218784848</v>
       </c>
       <c r="K3" s="1">
         <f ca="1">I3*($H$1^J3-1)*$H$1^(-SUM($J$2:J3))</f>
-        <v>0.52973510412588709</v>
+        <v>0.49792736724159242</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -888,11 +888,11 @@
       </c>
       <c r="J4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6148673132520592</v>
+        <v>1.6401485862905707</v>
       </c>
       <c r="K4" s="1">
         <f ca="1">I4*($H$1^J4-1)*$H$1^(-SUM($J$2:J4))</f>
-        <v>0.4357740894574238</v>
+        <v>0.11499745903725357</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -919,11 +919,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5409692650128273</v>
+        <v>4.1141461685605538</v>
       </c>
       <c r="K5" s="1">
         <f ca="1">I5*($H$1^J5-1)*$H$1^(-SUM($J$2:J5))</f>
-        <v>0.26218645628322873</v>
+        <v>0.26686919209587889</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -950,11 +950,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7696579594463628</v>
+        <v>1.3551162547390005</v>
       </c>
       <c r="K6" s="1">
         <f ca="1">I6*($H$1^J6-1)*$H$1^(-SUM($J$2:J6))</f>
-        <v>0.19617412269934326</v>
+        <v>8.1476034144365342E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -981,11 +981,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7572592718847053</v>
+        <v>0.11044088004243613</v>
       </c>
       <c r="K7" s="1">
         <f ca="1">I7*($H$1^J7-1)*$H$1^(-SUM($J$2:J7))</f>
-        <v>0.35258360876676836</v>
+        <v>6.4021066085818683E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9728173365282671</v>
+        <v>3.2504690742693585</v>
       </c>
       <c r="K8" s="1">
         <f ca="1">I8*($H$1^J8-1)*$H$1^(-SUM($J$2:J8))</f>
-        <v>0.15708593630341339</v>
+        <v>0.17823866789507295</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.9365487463797368</v>
+        <v>5.9264743999204015</v>
       </c>
       <c r="K9" s="1">
         <f ca="1">I9*($H$1^J9-1)*$H$1^(-SUM($J$2:J9))</f>
-        <v>0.33501711747048912</v>
+        <v>0.29012200655467302</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -1074,11 +1074,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8668134207962357</v>
+        <v>9.2817029689392285</v>
       </c>
       <c r="K10" s="1">
         <f ca="1">I10*($H$1^J10-1)*$H$1^(-SUM($J$2:J10))</f>
-        <v>0.13825119420028048</v>
+        <v>0.38208346152704825</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4051560009835455</v>
+        <v>7.2290720999049789</v>
       </c>
       <c r="K11" s="1">
         <f ca="1">I11*($H$1^J11-1)*$H$1^(-SUM($J$2:J11))</f>
-        <v>0.20453473182685664</v>
+        <v>0.24655258715681247</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -1133,11 +1133,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.938308459330278</v>
+        <v>9.9450547187075085</v>
       </c>
       <c r="K12" s="1">
         <f ca="1">I12*($H$1^J12-1)*$H$1^(-SUM($J$2:J12))</f>
-        <v>0.14145332627189111</v>
+        <v>0.27937718042421977</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -1161,11 +1161,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5269519205159954</v>
+        <v>3.2348087321442609</v>
       </c>
       <c r="K13" s="1">
         <f ca="1">I13*($H$1^J13-1)*$H$1^(-SUM($J$2:J13))</f>
-        <v>0.11353598191251682</v>
+        <v>7.7648858635982573E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8496333467639778</v>
+        <v>3.6995491213700848</v>
       </c>
       <c r="K14" s="1">
         <f ca="1">I14*($H$1^J14-1)*$H$1^(-SUM($J$2:J14))</f>
-        <v>4.3991251913430091E-2</v>
+        <v>8.0790219781422368E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1217,11 +1217,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1615986238746991</v>
+        <v>3.2219895336261342</v>
       </c>
       <c r="K15" s="1">
         <f ca="1">I15*($H$1^J15-1)*$H$1^(-SUM($J$2:J15))</f>
-        <v>5.8367625262740176E-2</v>
+        <v>6.3968413489463027E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0508843681969156</v>
+        <v>9.4156045428842354</v>
       </c>
       <c r="K16" s="1">
         <f ca="1">I16*($H$1^J16-1)*$H$1^(-SUM($J$2:J16))</f>
-        <v>8.6153196796766404E-2</v>
+        <v>0.16069521638163972</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -1273,11 +1273,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.874688385068159</v>
+        <v>1.2250476206237115</v>
       </c>
       <c r="K17" s="1">
         <f ca="1">I17*($H$1^J17-1)*$H$1^(-SUM($J$2:J17))</f>
-        <v>4.1286021400445863E-2</v>
+        <v>1.8268347900574147E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -1301,11 +1301,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4220660814564141</v>
+        <v>7.4264190231481377</v>
       </c>
       <c r="K18" s="1">
         <f ca="1">I18*($H$1^J18-1)*$H$1^(-SUM($J$2:J18))</f>
-        <v>3.295075818303652E-2</v>
+        <v>9.8836012760820449E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -1329,11 +1329,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8738979263327327</v>
+        <v>5.7243606745719227</v>
       </c>
       <c r="K19" s="1">
         <f ca="1">I19*($H$1^J19-1)*$H$1^(-SUM($J$2:J19))</f>
-        <v>2.5233977266955112E-2</v>
+        <v>6.4891753280818767E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -1357,11 +1357,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2013558655370264</v>
+        <v>8.0686013661880764</v>
       </c>
       <c r="K20" s="1">
         <f ca="1">I20*($H$1^J20-1)*$H$1^(-SUM($J$2:J20))</f>
-        <v>4.8286635046153936E-2</v>
+        <v>7.7413243995283695E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6108491901289925</v>
+        <v>7.6272853147736601</v>
       </c>
       <c r="K21" s="1">
         <f ca="1">I21*($H$1^J21-1)*$H$1^(-SUM($J$2:J21))</f>
-        <v>4.3929159173986626E-2</v>
+        <v>6.0681445971709089E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2223746912855451</v>
+        <v>5.1878098393457615</v>
       </c>
       <c r="K22" s="1">
         <f ca="1">I22*($H$1^J22-1)*$H$1^(-SUM($J$2:J22))</f>
-        <v>1.3355107343165399E-3</v>
+        <v>3.5164281770383957E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -1441,11 +1441,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1708355445113989</v>
+        <v>7.056760503729393</v>
       </c>
       <c r="K23" s="1">
         <f ca="1">I23*($H$1^J23-1)*$H$1^(-SUM($J$2:J23))</f>
-        <v>2.3189625623197388E-2</v>
+        <v>4.0974104428069952E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63693946083075992</v>
+        <v>2.3775203533331357</v>
       </c>
       <c r="K24" s="1">
         <f ca="1">I24*($H$1^J24-1)*$H$1^(-SUM($J$2:J24))</f>
-        <v>3.2593759644541222E-3</v>
+        <v>1.2131288999950255E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -1497,11 +1497,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5166141297337177</v>
+        <v>6.345299233701085E-2</v>
       </c>
       <c r="K25" s="1">
         <f ca="1">I25*($H$1^J25-1)*$H$1^(-SUM($J$2:J25))</f>
-        <v>3.4245324285932056E-2</v>
+        <v>3.0472218144434447E-4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -1525,11 +1525,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3577950474961904</v>
+        <v>8.8236580972001484</v>
       </c>
       <c r="K26" s="1">
         <f ca="1">I26*($H$1^J26-1)*$H$1^(-SUM($J$2:J26))</f>
-        <v>9.3728669312552366E-3</v>
+        <v>3.7415123740258946E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -1549,11 +1549,11 @@
       </c>
       <c r="J27" s="1">
         <f ca="1">SUM(J2:J26)</f>
-        <v>130.52157115215743</v>
+        <v>130.55465691632813</v>
       </c>
       <c r="K27" s="1">
         <f ca="1">SUM(K2:K26)</f>
-        <v>4.0801246720141782</v>
+        <v>3.9167506023685914</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K40" s="1">
         <f ca="1">SUM(K2:K39)</f>
-        <v>8.1602493440283563</v>
+        <v>7.8335012047371828</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.4">
@@ -2280,7 +2280,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2300,14 +2300,14 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <f>B2*($A$1^C2-1)*$A$1^(-SUM(C$2:$C2))</f>
-        <v>0.17303299635886632</v>
+        <v>0.19415609381007301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2316,24 +2316,20 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f>B3*($A$1^C3-1)*$A$1^(-SUM(C$2:$C3))</f>
-        <v>7.3183049434257186E-2</v>
+        <v>3.7692893381881816E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <f>B4*($A$1^C4-1)*$A$1^(-SUM(C$2:$C4))</f>
-        <v>1.7759427643723857E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2539,11 +2535,11 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <f>SUM(C2:C26)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
         <f>SUM(D2:D26)</f>
-        <v>0.26397547343684735</v>
+        <v>0.23184898719195482</v>
       </c>
     </row>
   </sheetData>
